--- a/data/freq.xlsx
+++ b/data/freq.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reuben/Desktop/UK_DRI/Manuscripts/Malaria/codes/pfMSP1-Malaria/pfMSP1-Malaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAD8A3C-A69B-5140-BD3A-50C2D125999B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F250FD-5CFC-084C-939D-0D75B12ED97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="-17480" windowWidth="27240" windowHeight="15860" xr2:uid="{3092D343-EF81-0842-BB54-871D2EF67185}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16840" xr2:uid="{3092D343-EF81-0842-BB54-871D2EF67185}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1366,7 +1366,7 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -1624,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -1868,7 +1868,10 @@
       <c r="M31">
         <v>0</v>
       </c>
-      <c r="O31" s="1"/>
+      <c r="O31" s="1">
+        <f>SUM(C2:M31)</f>
+        <v>150</v>
+      </c>
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
